--- a/MVP.Generate.Excel/Template/Corporate_Wallet.xlsx
+++ b/MVP.Generate.Excel/Template/Corporate_Wallet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Urry\MVP.Generate.Excel\MVP.Generate.Excel\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Urry\mvp_report\MVP.Generate.Excel\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D49AFC-9DE4-4C9D-8A66-94D0C127A8F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Corporate Wallet " sheetId="1" r:id="rId1"/>
@@ -116,7 +117,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -273,7 +274,7 @@
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -550,28 +551,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
